--- a/ClosedXML.Tests/Resource/Examples/Misc/FreezePanes.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/FreezePanes.xlsx
@@ -366,7 +366,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:E5"/>
+  <x:dimension ref="A1"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
       <x:pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozenSplit"/>
@@ -389,7 +389,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:E5"/>
+  <x:dimension ref="A1"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
       <x:pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozenSplit"/>
@@ -412,7 +412,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:E5"/>
+  <x:dimension ref="A1"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
       <x:pane xSplit="3" ySplit="0" topLeftCell="D1" activePane="topRight" state="frozenSplit"/>
@@ -435,7 +435,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:B2"/>
+  <x:dimension ref="A1"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
       <x:pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozenSplit"/>

--- a/ClosedXML.Tests/Resource/Examples/Misc/FreezePanes.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/FreezePanes.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -362,7 +362,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -385,7 +385,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -408,7 +408,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -431,7 +431,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>

--- a/ClosedXML.Tests/Resource/Examples/Misc/FreezePanes.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/FreezePanes.xlsx
@@ -6,10 +6,10 @@
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Freeze1" sheetId="2" r:id="rId2"/>
-    <x:sheet name="FreezeRows" sheetId="3" r:id="rId3"/>
-    <x:sheet name="FreezeColumns" sheetId="4" r:id="rId4"/>
-    <x:sheet name="Split View" sheetId="5" r:id="rId5"/>
+    <x:sheet name="Freeze1" sheetId="1" r:id="rId2"/>
+    <x:sheet name="FreezeRows" sheetId="2" r:id="rId3"/>
+    <x:sheet name="FreezeColumns" sheetId="3" r:id="rId4"/>
+    <x:sheet name="Split View" sheetId="4" r:id="rId5"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
